--- a/edt.xlsx
+++ b/edt.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -473,7 +473,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -482,7 +481,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -520,13 +518,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,43 +829,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-    </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+    </row>
+    <row r="4" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+    </row>
+    <row r="5" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -886,114 +885,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="33" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="67" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="31" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="47"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="K11" s="39"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="35"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="41" t="s">
+      <c r="F12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1003,11 +1002,11 @@
       <c r="D14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="29"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1017,64 +1016,64 @@
       <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="7"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="7"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="46"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="7"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="13"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -1094,114 +1093,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="12"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="25"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="7"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="64" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="46"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="44"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="8"/>
-      <c r="C27" s="29"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="31" t="s">
+      <c r="F27" s="19"/>
+      <c r="G27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="64" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="35"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="43" t="s">
+      <c r="F29" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1211,11 +1210,11 @@
       <c r="D31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E31" s="29"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1225,64 +1224,64 @@
       <c r="D32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="45"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="7"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="3"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="29"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="7"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="46"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="7"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="22" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="44"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="42"/>
       <c r="F37" s="13"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -1302,168 +1301,168 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="61"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="25"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="59"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="54"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="24"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="52"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="29"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="51"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="24"/>
+      <c r="F42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="49"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="29"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="63" t="s">
+      <c r="E43" s="24"/>
+      <c r="F43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="61" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
-      <c r="C44" s="29"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="9"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="52" t="s">
+      <c r="E44" s="24"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="52"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="45"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="50"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="52" t="s">
+      <c r="C46" s="66"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="47"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="52" t="s">
+      <c r="C47" s="66"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="C48" s="66"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="29"/>
-      <c r="E49" s="53"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="9"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="54"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="9"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="51"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="49"/>
       <c r="F51" s="9"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="8"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="55" t="s">
+      <c r="D52" s="27"/>
+      <c r="E52" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="55" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="53" t="s">
         <v>16</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="28"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="26"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>37</v>
       </c>
@@ -1483,99 +1482,99 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="27"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="49"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="57"/>
+      <c r="G57" s="47"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
       <c r="D58" s="9"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="60" t="s">
+      <c r="F58" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="29"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="29"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="9"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="57" t="s">
+      <c r="F59" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="46"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="44"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="29"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="57" t="s">
+      <c r="E60" s="27"/>
+      <c r="F60" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G60" s="30" t="s">
+      <c r="G60" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
-      <c r="C61" s="29"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="31" t="s">
+      <c r="E61" s="27"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="31"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="45"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="29"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="14"/>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="F63" s="65" t="s">
+      <c r="F63" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="49"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="47"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
       <c r="D64" s="14"/>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="29" t="s">
         <v>16</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G64" s="29"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="27"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>10</v>
       </c>
@@ -1585,11 +1584,11 @@
       <c r="D65" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="29"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E65" s="29"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="27"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>11</v>
       </c>
@@ -1599,62 +1598,62 @@
       <c r="D66" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="45"/>
+      <c r="E66" s="43"/>
       <c r="F66" s="9"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="29"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="9"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="15"/>
-      <c r="E68" s="46"/>
+      <c r="E68" s="44"/>
       <c r="F68" s="9"/>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="22" t="s">
+      <c r="D69" s="24"/>
+      <c r="E69" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="22" t="s">
+      <c r="D70" s="24"/>
+      <c r="E70" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="28"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="26"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>38</v>
       </c>
@@ -1674,166 +1673,166 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C74" s="1"/>
-      <c r="D74" s="27"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="49"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F74" s="57"/>
+      <c r="G74" s="47"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
       <c r="C75" s="2"/>
       <c r="D75" s="9"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="60" t="s">
+      <c r="F75" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="G75" s="29"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="27"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C76" s="29"/>
+      <c r="C76" s="27"/>
       <c r="D76" s="9"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="57" t="s">
+      <c r="F76" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="G76" s="46"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="44"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="29"/>
+      <c r="C77" s="27"/>
       <c r="D77" s="9"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="57" t="s">
+      <c r="E77" s="27"/>
+      <c r="F77" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="30" t="s">
+      <c r="G77" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
-      <c r="C78" s="29"/>
+      <c r="C78" s="27"/>
       <c r="D78" s="9"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="31" t="s">
+      <c r="E78" s="27"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="29"/>
+      <c r="C79" s="27"/>
       <c r="D79" s="9"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="58"/>
-      <c r="G79" s="31"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="45"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="29"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="62"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="52" t="s">
+      <c r="C80" s="60"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="65" t="s">
+      <c r="F80" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="G80" s="49"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G80" s="47"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="52" t="s">
+      <c r="C81" s="24"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="50" t="s">
         <v>16</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G81" s="29"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G81" s="27"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="25"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="29"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="24"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="27"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="25"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="53"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="51"/>
       <c r="F83" s="9"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="54"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="52"/>
       <c r="F84" s="9"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C85" s="25"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="51"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="49"/>
       <c r="F85" s="9"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C86" s="8"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="55" t="s">
+      <c r="D86" s="27"/>
+      <c r="E86" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="55" t="s">
+      <c r="D87" s="27"/>
+      <c r="E87" s="53" t="s">
         <v>16</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="11"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="28"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="26"/>
       <c r="G88" s="5"/>
     </row>
   </sheetData>
@@ -1848,7 +1847,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1860,7 +1859,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
